--- a/Prueba_2/DatosPracticaSQL.xlsx
+++ b/Prueba_2/DatosPracticaSQL.xlsx
@@ -1,41 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rokoko/Desktop/Logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Descargas\Nuxiba\testdevjr\Prueba_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D48591-0467-9242-9FBC-3C0DC525BE08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FBD5D-C837-45ED-88C5-D230B2ED83EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22500" xr2:uid="{12404B0B-7D3E-44C7-92CA-59F8C1921DED}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{12404B0B-7D3E-44C7-92CA-59F8C1921DED}"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoLogDial" sheetId="2" r:id="rId1"/>
-    <sheet name="Info Costos" sheetId="3" r:id="rId2"/>
+    <sheet name="logDial" sheetId="2" r:id="rId1"/>
+    <sheet name="costos" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="139">
-  <si>
-    <t>Fecha de llamada</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Tipo  llamada</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>Cel LD</t>
   </si>
@@ -49,407 +46,422 @@
     <t>Local</t>
   </si>
   <si>
-    <t>Tiempo de Dialogo</t>
-  </si>
-  <si>
-    <t>IDLlamada</t>
-  </si>
-  <si>
-    <t>01-01-2020</t>
-  </si>
-  <si>
-    <t>01-02-2020</t>
-  </si>
-  <si>
-    <t>01-03-2020</t>
-  </si>
-  <si>
-    <t>02-01-2020</t>
-  </si>
-  <si>
-    <t>03-01-2020</t>
-  </si>
-  <si>
-    <t>04-01-2020</t>
-  </si>
-  <si>
-    <t>05-01-2020</t>
-  </si>
-  <si>
-    <t>06-01-2020</t>
-  </si>
-  <si>
-    <t>07-01-2020</t>
-  </si>
-  <si>
-    <t>08-01-2020</t>
-  </si>
-  <si>
-    <t>09-01-2020</t>
-  </si>
-  <si>
-    <t>10-01-2020</t>
-  </si>
-  <si>
-    <t>11-01-2020</t>
-  </si>
-  <si>
-    <t>12-01-2020</t>
-  </si>
-  <si>
-    <t>13-01-2020</t>
-  </si>
-  <si>
-    <t>14-01-2020</t>
-  </si>
-  <si>
-    <t>15-01-2020</t>
-  </si>
-  <si>
-    <t>16-01-2020</t>
-  </si>
-  <si>
-    <t>17-01-2020</t>
-  </si>
-  <si>
-    <t>18-01-2020</t>
-  </si>
-  <si>
-    <t>19-01-2020</t>
-  </si>
-  <si>
-    <t>20-01-2020</t>
-  </si>
-  <si>
-    <t>21-01-2020</t>
-  </si>
-  <si>
-    <t>22-01-2020</t>
-  </si>
-  <si>
-    <t>23-01-2020</t>
-  </si>
-  <si>
-    <t>24-01-2020</t>
-  </si>
-  <si>
-    <t>25-01-2020</t>
-  </si>
-  <si>
-    <t>26-01-2020</t>
-  </si>
-  <si>
-    <t>27-01-2020</t>
-  </si>
-  <si>
-    <t>28-01-2020</t>
-  </si>
-  <si>
-    <t>29-01-2020</t>
-  </si>
-  <si>
-    <t>30-01-2020</t>
-  </si>
-  <si>
-    <t>31-01-2020</t>
-  </si>
-  <si>
-    <t>02-02-2020</t>
-  </si>
-  <si>
-    <t>03-02-2020</t>
-  </si>
-  <si>
-    <t>04-02-2020</t>
-  </si>
-  <si>
-    <t>05-02-2020</t>
-  </si>
-  <si>
-    <t>06-02-2020</t>
-  </si>
-  <si>
-    <t>07-02-2020</t>
-  </si>
-  <si>
-    <t>08-02-2020</t>
-  </si>
-  <si>
-    <t>09-02-2020</t>
-  </si>
-  <si>
-    <t>10-02-2020</t>
-  </si>
-  <si>
-    <t>11-02-2020</t>
-  </si>
-  <si>
-    <t>12-02-2020</t>
-  </si>
-  <si>
-    <t>13-02-2020</t>
-  </si>
-  <si>
-    <t>14-02-2020</t>
-  </si>
-  <si>
-    <t>15-02-2020</t>
-  </si>
-  <si>
-    <t>16-02-2020</t>
-  </si>
-  <si>
-    <t>17-02-2020</t>
-  </si>
-  <si>
-    <t>18-02-2020</t>
-  </si>
-  <si>
-    <t>19-02-2020</t>
-  </si>
-  <si>
-    <t>20-02-2020</t>
-  </si>
-  <si>
-    <t>21-02-2020</t>
-  </si>
-  <si>
-    <t>22-02-2020</t>
-  </si>
-  <si>
-    <t>23-02-2020</t>
-  </si>
-  <si>
-    <t>24-02-2020</t>
-  </si>
-  <si>
-    <t>25-02-2020</t>
-  </si>
-  <si>
-    <t>26-02-2020</t>
-  </si>
-  <si>
-    <t>27-02-2020</t>
-  </si>
-  <si>
-    <t>28-02-2020</t>
-  </si>
-  <si>
-    <t>29-02-2020</t>
-  </si>
-  <si>
-    <t>02-03-2020</t>
-  </si>
-  <si>
-    <t>03-03-2020</t>
-  </si>
-  <si>
-    <t>04-03-2020</t>
-  </si>
-  <si>
-    <t>05-03-2020</t>
-  </si>
-  <si>
-    <t>06-03-2020</t>
-  </si>
-  <si>
-    <t>07-03-2020</t>
-  </si>
-  <si>
-    <t>08-03-2020</t>
-  </si>
-  <si>
-    <t>09-03-2020</t>
-  </si>
-  <si>
-    <t>10-03-2020</t>
-  </si>
-  <si>
-    <t>11-03-2020</t>
-  </si>
-  <si>
-    <t>12-03-2020</t>
-  </si>
-  <si>
-    <t>13-03-2020</t>
-  </si>
-  <si>
-    <t>14-03-2020</t>
-  </si>
-  <si>
-    <t>15-03-2020</t>
-  </si>
-  <si>
-    <t>16-03-2020</t>
-  </si>
-  <si>
-    <t>17-03-2020</t>
-  </si>
-  <si>
-    <t>18-03-2020</t>
-  </si>
-  <si>
-    <t>19-03-2020</t>
-  </si>
-  <si>
-    <t>20-03-2020</t>
-  </si>
-  <si>
-    <t>21-03-2020</t>
-  </si>
-  <si>
-    <t>22-03-2020</t>
-  </si>
-  <si>
-    <t>23-03-2020</t>
-  </si>
-  <si>
-    <t>24-03-2020</t>
-  </si>
-  <si>
-    <t>25-03-2020</t>
-  </si>
-  <si>
-    <t>26-03-2020</t>
-  </si>
-  <si>
-    <t>27-03-2020</t>
-  </si>
-  <si>
-    <t>28-03-2020</t>
-  </si>
-  <si>
-    <t>29-03-2020</t>
-  </si>
-  <si>
-    <t>30-03-2020</t>
-  </si>
-  <si>
-    <t>31-03-2020</t>
-  </si>
-  <si>
-    <t>01-04-2020</t>
-  </si>
-  <si>
-    <t>02-04-2020</t>
-  </si>
-  <si>
-    <t>03-04-2020</t>
-  </si>
-  <si>
-    <t>04-04-2020</t>
-  </si>
-  <si>
-    <t>05-04-2020</t>
-  </si>
-  <si>
-    <t>06-04-2020</t>
-  </si>
-  <si>
-    <t>07-04-2020</t>
-  </si>
-  <si>
-    <t>08-04-2020</t>
-  </si>
-  <si>
-    <t>09-04-2020</t>
-  </si>
-  <si>
-    <t>10-04-2020</t>
-  </si>
-  <si>
-    <t>11-04-2020</t>
-  </si>
-  <si>
-    <t>12-04-2020</t>
-  </si>
-  <si>
-    <t>13-04-2020</t>
-  </si>
-  <si>
-    <t>14-04-2020</t>
-  </si>
-  <si>
-    <t>15-04-2020</t>
-  </si>
-  <si>
-    <t>16-04-2020</t>
-  </si>
-  <si>
-    <t>17-04-2020</t>
-  </si>
-  <si>
-    <t>18-04-2020</t>
-  </si>
-  <si>
-    <t>19-04-2020</t>
-  </si>
-  <si>
-    <t>20-04-2020</t>
-  </si>
-  <si>
-    <t>21-04-2020</t>
-  </si>
-  <si>
-    <t>22-04-2020</t>
-  </si>
-  <si>
-    <t>23-04-2020</t>
-  </si>
-  <si>
-    <t>24-04-2020</t>
-  </si>
-  <si>
-    <t>25-04-2020</t>
-  </si>
-  <si>
-    <t>26-04-2020</t>
-  </si>
-  <si>
-    <t>27-04-2020</t>
-  </si>
-  <si>
-    <t>28-04-2020</t>
-  </si>
-  <si>
-    <t>29-04-2020</t>
-  </si>
-  <si>
-    <t>30-04-2020</t>
-  </si>
-  <si>
-    <t>01-05-2020</t>
-  </si>
-  <si>
-    <t>02-05-2020</t>
-  </si>
-  <si>
-    <t>03-05-2020</t>
-  </si>
-  <si>
-    <t>04-05-2020</t>
-  </si>
-  <si>
-    <t>05-05-2020</t>
-  </si>
-  <si>
-    <t>06-05-2020</t>
-  </si>
-  <si>
-    <t>07-05-2020</t>
-  </si>
-  <si>
-    <t>08-05-2020</t>
-  </si>
-  <si>
-    <t>Costo Min</t>
+    <t xml:space="preserve">tipoDeLlamada </t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idLlamada </t>
+  </si>
+  <si>
+    <t>fechaDeLlamada</t>
+  </si>
+  <si>
+    <t>tiempoDialogo</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>tipoDeLlamada</t>
+  </si>
+  <si>
+    <t>01-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>05-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>06-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>07-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>09-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>12-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>14-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>16-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>17-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>24-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>25-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>28-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>29-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>30-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>06-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>07-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>09-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>12-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>14-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>16-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>17-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>24-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>25-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>28-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>29-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>05-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>06-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>07-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>09-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>12-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>14-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>16-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>17-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>24-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>25-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>28-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>29-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>30-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>05-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>06-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>07-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>09-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>12-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>13-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>14-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>16-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>18-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>24-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>25-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>28-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>29-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>30-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>05-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>06-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>07-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +476,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,19 +514,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F59395-E818-4ADC-80E6-2DFC510859EC}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G103" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
@@ -837,2215 +858,2344 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>197463</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>60</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>8000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>197464</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>60</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>197465</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>240</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>8000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>197466</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>60</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>8000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>197467</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>60</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>8000000005</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>197468</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>60</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>8000000006</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>197469</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>60</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>8000000007</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>197470</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>120</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>8000000008</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>197471</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>60</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>8000000009</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>197472</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>60</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>8000000010</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>197473</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>120</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>8000000011</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>197474</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>60</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>8000000012</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>197475</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>60</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>8000000013</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>197476</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3">
         <v>60</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>8000000014</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>197477</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>120</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>8000000015</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>197478</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>60</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>8000000016</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>197479</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3">
         <v>60</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>8000000017</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>197480</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>60</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8000000018</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>197481</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>180</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>8000000019</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>197482</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>120</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>8000000020</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>197483</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3">
         <v>60</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>8000000021</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>197484</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="3">
         <v>60</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>8000000022</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>197485</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>60</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>8000000023</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>197486</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>120</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>8000000024</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>197487</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="3">
         <v>60</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>8000000025</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>197488</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="3">
         <v>60</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>8000000026</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>197489</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="3">
         <v>120</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>8000000027</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>197490</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3">
         <v>60</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>8000000028</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>197491</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3">
         <v>76</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>8000000029</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>197492</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3">
         <v>60</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>8000000030</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>197493</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>60</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>8000000031</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>197494</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
+      <c r="B33" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="3">
         <v>60</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>8000000032</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>197495</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
+      <c r="B34" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="3">
         <v>60</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>8000000033</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>197496</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
+      <c r="B35" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>240</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>8000000034</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>197497</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
+      <c r="B36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>8000000035</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>197498</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
+      <c r="B37" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="3">
         <v>240</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>8000000036</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>197499</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
+      <c r="B38" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <v>120</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>8000000037</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>197500</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
+      <c r="B39" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="3">
         <v>95</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>8000000038</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>197501</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
+      <c r="B40" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C40" s="3">
         <v>60</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>8000000039</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>197502</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>49</v>
+      <c r="B41" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="3">
         <v>60</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>8000000040</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>197503</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>50</v>
+      <c r="B42" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C42" s="3">
         <v>360</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>8000000041</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>197504</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
+      <c r="B43" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="3">
         <v>60</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>8000000042</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>197505</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>52</v>
+      <c r="B44" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C44" s="3">
         <v>60</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>8000000043</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>197506</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>53</v>
+      <c r="B45" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="3">
         <v>60</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>8000000044</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>197507</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>54</v>
+      <c r="B46" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C46" s="3">
         <v>120</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>8000000045</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>197508</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
+      <c r="B47" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C47" s="3">
         <v>60</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>8000000046</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>197509</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
+      <c r="B48" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C48" s="3">
         <v>60</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>8000000047</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>197510</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
+      <c r="B49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="3">
         <v>120</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>8000000048</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>197511</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
+      <c r="B50" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C50" s="3">
         <v>120</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>8000000049</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>197512</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>59</v>
+      <c r="B51" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C51" s="3">
         <v>60</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>8000000050</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>197513</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
+      <c r="B52" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="3">
         <v>85</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>8000000051</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>197514</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>61</v>
+      <c r="B53" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C53" s="3">
         <v>60</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>8000000052</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>197515</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>62</v>
+      <c r="B54" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C54" s="3">
         <v>60</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>8000000053</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>197516</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
+      <c r="B55" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C55" s="3">
         <v>120</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>8000000054</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>197517</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>64</v>
+      <c r="B56" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C56" s="3">
         <v>120</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>8000000055</v>
       </c>
       <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>197518</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>65</v>
+      <c r="B57" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C57" s="3">
         <v>240</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>8000000056</v>
       </c>
       <c r="E57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>197519</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
+      <c r="B58" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C58" s="3">
         <v>60</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>8000000057</v>
       </c>
       <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>197520</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>67</v>
+      <c r="B59" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C59" s="3">
         <v>180</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>8000000058</v>
       </c>
       <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>197521</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
+      <c r="B60" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C60" s="3">
         <v>180</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>8000000059</v>
       </c>
       <c r="E60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>197522</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>69</v>
+      <c r="B61" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C61" s="3">
         <v>120</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>8000000060</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>197523</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>11</v>
+      <c r="B62" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C62" s="3">
         <v>60</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>8000000061</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>197524</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>70</v>
+      <c r="B63" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C63" s="3">
         <v>60</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>8000000062</v>
       </c>
       <c r="E63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>197525</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>71</v>
+      <c r="B64" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C64" s="3">
         <v>120</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>8000000063</v>
       </c>
       <c r="E64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>197526</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>72</v>
+      <c r="B65" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C65" s="3">
         <v>60</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>8000000064</v>
       </c>
       <c r="E65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>197527</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>73</v>
+      <c r="B66" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C66" s="3">
         <v>60</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>8000000065</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>197528</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>74</v>
+      <c r="B67" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C67" s="3">
         <v>60</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>8000000066</v>
       </c>
       <c r="E67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>197529</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>75</v>
+      <c r="B68" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C68" s="3">
         <v>60</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>8000000067</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>197530</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>76</v>
+      <c r="B69" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C69" s="3">
         <v>60</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>8000000068</v>
       </c>
       <c r="E69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>197531</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>77</v>
+      <c r="B70" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C70" s="3">
         <v>60</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>8000000069</v>
       </c>
       <c r="E70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>197532</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>78</v>
+      <c r="B71" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C71" s="3">
         <v>60</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>8000000070</v>
       </c>
       <c r="E71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>197533</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>79</v>
+      <c r="B72" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C72" s="3">
         <v>60</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>8000000071</v>
       </c>
       <c r="E72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>197534</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>80</v>
+      <c r="B73" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C73" s="3">
         <v>120</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>8000000072</v>
       </c>
       <c r="E73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>197535</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>81</v>
+      <c r="B74" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C74" s="3">
         <v>60</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>8000000073</v>
       </c>
       <c r="E74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>197536</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>82</v>
+      <c r="B75" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C75" s="3">
         <v>60</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>8000000074</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>197537</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>83</v>
+      <c r="B76" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C76" s="3">
         <v>60</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>8000000075</v>
       </c>
       <c r="E76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>197538</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>84</v>
+      <c r="B77" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C77" s="3">
         <v>120</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>8000000076</v>
       </c>
       <c r="E77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>197539</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>85</v>
+      <c r="B78" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="C78" s="3">
         <v>60</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>8000000077</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>197540</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>86</v>
+      <c r="B79" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C79" s="3">
         <v>60</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>8000000078</v>
       </c>
       <c r="E79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>197541</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>87</v>
+      <c r="B80" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C80" s="3">
         <v>86</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>8000000079</v>
       </c>
       <c r="E80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>197542</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>88</v>
+      <c r="B81" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="C81" s="3">
         <v>120</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>8000000080</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>197543</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>89</v>
+      <c r="B82" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C82" s="3">
         <v>120</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>8000000081</v>
       </c>
       <c r="E82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>197544</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>90</v>
+      <c r="B83" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C83" s="3">
         <v>60</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>8000000082</v>
       </c>
       <c r="E83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>197545</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>91</v>
+      <c r="B84" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C84" s="3">
         <v>77</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>8000000083</v>
       </c>
       <c r="E84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>197546</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>92</v>
+      <c r="B85" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C85" s="3">
         <v>60</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>8000000084</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>197547</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>93</v>
+      <c r="B86" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C86" s="3">
         <v>60</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>8000000085</v>
       </c>
       <c r="E86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>197548</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>94</v>
+      <c r="B87" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C87" s="3">
         <v>120</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>8000000086</v>
       </c>
       <c r="E87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>197549</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>95</v>
+      <c r="B88" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C88" s="3">
         <v>180</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>8000000087</v>
       </c>
       <c r="E88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>197550</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>96</v>
+      <c r="B89" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C89" s="3">
         <v>180</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>8000000088</v>
       </c>
       <c r="E89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>197551</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>97</v>
+      <c r="B90" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C90" s="3">
         <v>60</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>8000000089</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>197552</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>98</v>
+      <c r="B91" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C91" s="3">
         <v>60</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>8000000090</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>197553</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>99</v>
+      <c r="B92" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="3">
         <v>60</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>8000000091</v>
       </c>
       <c r="E92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>197554</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>100</v>
+      <c r="B93" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C93" s="3">
         <v>60</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>8000000092</v>
       </c>
       <c r="E93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>197555</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>101</v>
+      <c r="B94" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C94" s="3">
         <v>60</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>8000000093</v>
       </c>
       <c r="E94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>197556</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>102</v>
+      <c r="B95" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C95" s="3">
         <v>180</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>8000000094</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>197557</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>103</v>
+      <c r="B96" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C96" s="3">
         <v>60</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>8000000095</v>
       </c>
       <c r="E96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>197558</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>104</v>
+      <c r="B97" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C97" s="3">
         <v>196</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>8000000096</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>197559</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>105</v>
+      <c r="B98" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C98" s="3">
         <v>60</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>8000000097</v>
       </c>
       <c r="E98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>197560</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>106</v>
+      <c r="B99" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C99" s="3">
         <v>60</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>8000000098</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>197561</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>107</v>
+      <c r="B100" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C100" s="3">
         <v>60</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>8000000099</v>
       </c>
       <c r="E100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>197562</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>108</v>
+      <c r="B101" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C101" s="3">
         <v>60</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>8000000100</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>197563</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>109</v>
+      <c r="B102" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C102" s="3">
         <v>60</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>8000000101</v>
       </c>
       <c r="E102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>197564</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>110</v>
+      <c r="B103" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="C103" s="3">
         <v>60</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>8000000102</v>
       </c>
       <c r="E103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>197565</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>111</v>
+      <c r="B104" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C104" s="3">
         <v>60</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>8000000103</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>197566</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>112</v>
+      <c r="B105" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C105" s="3">
         <v>120</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>8000000104</v>
       </c>
       <c r="E105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>197567</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>113</v>
+      <c r="B106" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="C106" s="3">
         <v>180</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>8000000105</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>197568</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>114</v>
+      <c r="B107" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C107" s="3">
         <v>60</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>8000000106</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>197569</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>115</v>
+      <c r="B108" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C108" s="3">
         <v>60</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="5">
         <v>8000000107</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>197570</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>116</v>
+      <c r="B109" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C109" s="3">
         <v>60</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="5">
         <v>8000000108</v>
       </c>
       <c r="E109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>197571</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>117</v>
+      <c r="B110" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C110" s="3">
         <v>180</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>8000000109</v>
       </c>
       <c r="E110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>197572</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>118</v>
+      <c r="B111" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C111" s="3">
         <v>60</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>8000000110</v>
       </c>
       <c r="E111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>197573</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>119</v>
+      <c r="B112" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="C112" s="3">
         <v>60</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>8000000111</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>197574</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>120</v>
+      <c r="B113" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C113" s="3">
         <v>60</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>8000000112</v>
       </c>
       <c r="E113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>197575</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>121</v>
+      <c r="B114" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C114" s="3">
         <v>60</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>8000000113</v>
       </c>
       <c r="E114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>197576</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>122</v>
+      <c r="B115" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="C115" s="3">
         <v>60</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>8000000114</v>
       </c>
       <c r="E115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>197577</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>123</v>
+      <c r="B116" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C116" s="3">
         <v>60</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="5">
         <v>8000000115</v>
       </c>
       <c r="E116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>197578</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>124</v>
+      <c r="B117" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C117" s="3">
         <v>60</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>8000000116</v>
       </c>
       <c r="E117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>197579</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>125</v>
+      <c r="B118" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C118" s="3">
         <v>60</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>8000000117</v>
       </c>
       <c r="E118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>197580</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>126</v>
+      <c r="B119" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C119" s="3">
         <v>240</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="5">
         <v>8000000118</v>
       </c>
       <c r="E119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>197581</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>127</v>
+      <c r="B120" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C120" s="3">
         <v>60</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="5">
         <v>8000000119</v>
       </c>
       <c r="E120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>197582</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>128</v>
+      <c r="B121" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C121" s="3">
         <v>60</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="5">
         <v>8000000120</v>
       </c>
       <c r="E121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>197583</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>129</v>
+      <c r="B122" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="C122" s="3">
         <v>120</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>8000000121</v>
       </c>
       <c r="E122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>197584</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>130</v>
+      <c r="B123" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C123" s="3">
         <v>60</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="5">
         <v>8000000122</v>
       </c>
       <c r="E123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>197585</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>131</v>
+      <c r="B124" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C124" s="3">
         <v>60</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="5">
         <v>8000000123</v>
       </c>
       <c r="E124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>197586</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>132</v>
+      <c r="B125" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C125" s="3">
         <v>120</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>8000000124</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>197587</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>133</v>
+      <c r="B126" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C126" s="3">
         <v>60</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="5">
         <v>8000000125</v>
       </c>
       <c r="E126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>197588</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>134</v>
+      <c r="B127" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C127" s="3">
         <v>60</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="5">
         <v>8000000126</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>197589</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>135</v>
+      <c r="B128" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C128" s="3">
         <v>60</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="5">
         <v>8000000127</v>
       </c>
       <c r="E128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>197590</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>136</v>
+      <c r="B129" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C129" s="3">
         <v>60</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>8000000128</v>
       </c>
       <c r="E129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>197591</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C130" s="9">
+      <c r="B130" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="7">
         <v>120</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="8">
         <v>8000000129</v>
       </c>
-      <c r="E130" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="E130" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,43 +3208,43 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.5</v>
       </c>
     </row>
